--- a/biology/Médecine/Intoxication_alcoolique/Intoxication_alcoolique.xlsx
+++ b/biology/Médecine/Intoxication_alcoolique/Intoxication_alcoolique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'intoxication alcoolique est un état transitoire consécutif à l'ingestion (généralement délibérée) de boissons alcoolisées, marqué par l'apparition de symptômes d'intoxication par l'alcool éthylique, qui sont des perturbations à la fois physiologiques, psychologiques et comportementales. « Sa traduction clinique est l’ivresse (alcoolique) »[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'intoxication alcoolique est un état transitoire consécutif à l'ingestion (généralement délibérée) de boissons alcoolisées, marqué par l'apparition de symptômes d'intoxication par l'alcool éthylique, qui sont des perturbations à la fois physiologiques, psychologiques et comportementales. « Sa traduction clinique est l’ivresse (alcoolique) ».
 Son évolution passe par des troubles psychomoteurs, se résolvant souvent spontanément, mais débouchant sur des nausées, vomissements, un sommeil lourd, puis une « gueule de bois ».
-Mais l'Intoxication éthylique aiguë (ou IEA) peut conduire à des complications graves : coma éthylique pouvant conduire à la mort ; c'est une urgence médicale[1].
+Mais l'Intoxication éthylique aiguë (ou IEA) peut conduire à des complications graves : coma éthylique pouvant conduire à la mort ; c'est une urgence médicale.
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Éléments de définition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Au sens strict, les symptômes de l'ivresse sont des signes d'intoxication, qui préfigurent la « gueule de bois ».
 Mais par « intoxication alcoolique », on entend généralement l'intoxication aiguë qui est le stade pouvant menacer la vie après l'ivresse ou durant l'ivresse.
@@ -548,12 +562,14 @@
           <t>Phases</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>L’IEA présente diverses formes où se succèdent :
 une excitation psychomotrice, « avec désinhibition, euphorie, agitation, logorrhée, puis irritabilité émotionnelle, troubles de l'attention, troubles du jugement » ;
 une phase d'ébriété associée à un syndrome cérébelleux (toxique aigu), marquée par des troubles sensoriels (désorientation, dysarthrie, troubles de l'équilibre) ;
-un coma éventuel (hypotonique), avec mydriase bilatérale, hypothermie, éventuelle incontinence sphinctérienne, hypotension artérielle, pouvant aboutir à une dépression respiratoire. Comme dans beaucoup d’intoxications, les vomissements peuvent survenir à plusieurs reprises et conduire à l'étouffement en cas de troubles persistants de vigilance[2],[3],[4] ;
+un coma éventuel (hypotonique), avec mydriase bilatérale, hypothermie, éventuelle incontinence sphinctérienne, hypotension artérielle, pouvant aboutir à une dépression respiratoire. Comme dans beaucoup d’intoxications, les vomissements peuvent survenir à plusieurs reprises et conduire à l'étouffement en cas de troubles persistants de vigilance ;
 des formes pathologiques, parfois atypiques et associées à des comorbidités, qui nécessitent un traitement précoce ;
 Sommeil peu récupérateur ;
 Gueule de bois.</t>
@@ -584,7 +600,9 @@
           <t>Conduite à tenir face à une IAE</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Si l'on constate ou soupçonne une intoxication alcoolique aiguë, il s'agit de réagir vite.
 Si la victime est encore consciente, on devra essayer de la faire vomir avant qu'elle ne perde connaissance[réf. nécessaire]. 
@@ -617,9 +635,11 @@
           <t>Prévalence, coûts sociétaux</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jusqu’à 10 % des personnes entrant aux urgences hospitalières présenteraient une IEA [4-6], expliquant 3 à 5 % des séjours hospitaliers[5].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jusqu’à 10 % des personnes entrant aux urgences hospitalières présenteraient une IEA [4-6], expliquant 3 à 5 % des séjours hospitaliers.
 </t>
         </is>
       </c>
